--- a/flags.xlsx
+++ b/flags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\Main_source\FlagDataListCsvToJson\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\Main_source\Flag_data_list_csv_to_json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F076BE-DF66-45DE-ACE2-F5D8882FE035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73D9FF0-4737-4F67-91C1-9AAA184A891A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1406,7 +1406,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1686,17 +1686,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C169" sqref="C169"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="25.875" customWidth="1"/>
+    <col min="4" max="4" width="25.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1856,12 +1856,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>82</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>83</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>84</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>85</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>86</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>87</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>88</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>89</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>90</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>91</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>92</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>93</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>94</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>95</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>96</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>97</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>98</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>99</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>100</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>101</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>102</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>103</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>104</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>105</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>106</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>107</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>108</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>109</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>110</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>111</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>112</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>113</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>114</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>115</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>116</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>117</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>118</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>119</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>120</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>121</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>122</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>123</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>124</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>125</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>126</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>127</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>128</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>129</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>130</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>131</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>132</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>133</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>134</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>135</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>136</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>137</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>138</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>139</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>140</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>141</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>142</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>143</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>144</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>145</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>146</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>147</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>148</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>149</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>150</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>151</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>152</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>153</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>154</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>155</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>156</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>157</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>158</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>159</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>160</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>161</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>162</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>163</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>164</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>165</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>166</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>167</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>168</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>169</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>170</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>171</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>172</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>173</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>174</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>175</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>176</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>177</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>178</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>179</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>180</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>181</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>182</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>183</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>184</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>185</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>186</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>187</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>188</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>189</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>190</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>191</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>192</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>193</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>194</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>195</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>196</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>197</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>198</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>199</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>200</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>201</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>202</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>203</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>204</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>205</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>206</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>207</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>208</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>209</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>210</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>211</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>212</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>213</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>214</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>215</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>216</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>217</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>218</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>219</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>220</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>221</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>222</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>223</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>224</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>225</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>226</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>227</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>228</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>229</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>230</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>231</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>232</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>233</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>234</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>235</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>236</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>237</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>238</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>239</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>240</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>241</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>242</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>243</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>244</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>245</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>246</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>247</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>248</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>249</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>250</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>251</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>252</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>253</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>254</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>255</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>256</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>257</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>258</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>259</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>260</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>261</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>262</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>263</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>264</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>265</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>266</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>267</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>268</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>269</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>270</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>271</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>272</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>273</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>274</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>275</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>276</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>277</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>278</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>279</v>
       </c>
